--- a/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -2267,14 +2267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2297,67 +2289,6 @@
   <si>
     <t>包装规格</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>M12</t>
   </si>
   <si>
     <r>
@@ -2505,17 +2436,13 @@
   </si>
   <si>
     <t>内包装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2683,7 +2610,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2693,6 +2620,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,7 +3175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3384,293 +3317,293 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3681,35 +3614,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3729,7 +3644,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4029,42 +3944,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="82" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="89" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4256,12 +4171,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4275,10 +4190,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4292,46 +4207,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="88"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4400,48 +4315,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="102" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="103"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4505,15 +4420,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="108"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4527,13 +4442,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="109"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4591,15 +4506,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4613,13 +4528,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4633,13 +4548,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4653,15 +4568,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4675,13 +4590,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="99"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4695,13 +4610,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4715,13 +4630,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4735,35 +4650,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="99"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="100" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="101"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4839,48 +4754,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="102" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="103"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4944,15 +4859,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="108"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4966,13 +4881,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="109"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -5008,15 +4923,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -5030,15 +4945,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -5052,13 +4967,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5072,13 +4987,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5092,15 +5007,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5114,13 +5029,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="99"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5134,13 +5049,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5154,13 +5069,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5174,38 +5089,43 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="99"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="100" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="101"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5217,11 +5137,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5278,96 +5193,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="139" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="139" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="142" t="s">
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="142"/>
+      <c r="P3" s="110"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122" t="s">
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="126" t="s">
+      <c r="P4" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="134"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="117"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5392,8 +5307,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5636,60 +5551,55 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="130" t="s">
+      <c r="G18" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="115"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5704,6 +5614,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5716,8 +5631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:P21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5733,8 +5648,8 @@
     <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="1" customWidth="1"/>
@@ -5760,124 +5675,124 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="146"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="143" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="144"/>
       <c r="H3" s="145"/>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="50" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="54" t="s">
-        <v>100</v>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="149" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="149"/>
+      <c r="P4" s="50" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="O5" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="126" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="117"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5890,7 +5805,7 @@
       <c r="I6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="51" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="33" t="s">
@@ -5902,373 +5817,309 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47">
-        <v>1</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>97</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="59" t="s">
-        <v>111</v>
-      </c>
+      <c r="E7" s="55"/>
       <c r="F7" s="7"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47">
-        <v>2</v>
-      </c>
-      <c r="B8" s="48"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47">
-        <v>5</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="41"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47">
-        <v>7</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47">
-        <v>8</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47">
-        <v>9</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47">
-        <v>10</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47">
-        <v>11</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68">
-        <v>12</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-    </row>
-    <row r="20" spans="1:16" s="57" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="67" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="1:16" s="53" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="56" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="148"/>
+      <c r="M20" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="66"/>
+      <c r="N20" s="61"/>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="151"/>
+      <c r="A21" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="64" t="s">
-        <v>123</v>
+      <c r="B23" s="59" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="F21:P21"/>
     <mergeCell ref="B5:B6"/>
@@ -6282,14 +6133,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -3175,7 +3175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3332,38 +3332,14 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3494,6 +3470,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3509,80 +3560,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3599,32 +3593,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3944,42 +3962,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="75" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="82" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4171,12 +4189,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4190,10 +4208,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4207,46 +4225,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="81"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4315,48 +4333,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="95" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="95" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="96"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4420,15 +4438,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="101"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4442,13 +4460,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="102"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="94"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4506,15 +4524,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="82"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4528,13 +4546,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4548,13 +4566,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4568,15 +4586,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="84"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4590,13 +4608,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4610,13 +4628,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4630,13 +4648,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4650,35 +4668,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="93" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="94"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4754,48 +4772,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="95" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="95" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="96"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4859,15 +4877,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="101"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4881,13 +4899,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="102"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="94"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4923,15 +4941,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="97"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4945,15 +4963,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="82"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4967,13 +4985,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4987,13 +5005,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5007,15 +5025,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="84"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5029,13 +5047,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5049,13 +5067,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5069,13 +5087,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5089,43 +5107,38 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="93" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="94"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5137,6 +5150,11 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5193,96 +5211,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="107" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="107" t="s">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="110"/>
+      <c r="P3" s="127"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120" t="s">
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="123" t="s">
+      <c r="M4" s="108"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="124" t="s">
+      <c r="P4" s="111" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="132"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="115"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5307,8 +5325,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5551,55 +5569,60 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="113"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5614,11 +5637,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5631,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5676,123 +5694,123 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="143" t="s">
+      <c r="E3" s="131"/>
+      <c r="F3" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="110" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="107" t="s">
+      <c r="J3" s="127"/>
+      <c r="K3" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="126"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="146"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132"/>
       <c r="H4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
       <c r="K4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="149"/>
+      <c r="O4" s="133"/>
       <c r="P4" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120" t="s">
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="142" t="s">
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="O5" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="111" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="115"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5817,309 +5835,299 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="121"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="147"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="147"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="147"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="147"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="147"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="147"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="147"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="147"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="147"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="146"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="147"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
       <c r="J18" s="147"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
     </row>
     <row r="19" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="147"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-    </row>
-    <row r="20" spans="1:16" s="53" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+      <c r="K19" s="145"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146"/>
+    </row>
+    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="149"/>
+      <c r="C20" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="57" t="s">
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="148"/>
-      <c r="M20" s="61" t="s">
+      <c r="L20" s="54"/>
+      <c r="M20" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
     </row>
     <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138" t="s">
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="139"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="137"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="53" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="F21:P21"/>
     <mergeCell ref="B5:B6"/>
@@ -6133,6 +6141,16 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -3175,7 +3175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3341,6 +3341,39 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3470,6 +3503,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3545,20 +3593,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3569,80 +3623,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3962,42 +3965,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="67" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="74" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4189,12 +4192,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4208,10 +4211,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4225,46 +4228,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="73"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4333,48 +4336,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="87" t="s">
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="88"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4438,15 +4441,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="93"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4460,13 +4463,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="94"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="105"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4524,15 +4527,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4546,13 +4549,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4566,13 +4569,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4586,15 +4589,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="83" t="s">
+      <c r="J12" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4608,13 +4611,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4628,13 +4631,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4648,13 +4651,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4668,35 +4671,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="85" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="86"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4772,48 +4775,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="87" t="s">
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="88"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4877,15 +4880,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="93"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="104"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4899,13 +4902,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="94"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="105"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4941,15 +4944,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="97"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4963,15 +4966,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4985,13 +4988,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5005,13 +5008,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5025,15 +5028,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="83" t="s">
+      <c r="J12" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5047,13 +5050,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5067,13 +5070,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5087,13 +5090,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5107,38 +5110,43 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="85" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="86"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5150,11 +5158,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5211,96 +5214,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="124" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="124" t="s">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="127"/>
+      <c r="P3" s="113"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107" t="s">
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110" t="s">
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="127" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="102"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5325,8 +5328,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5569,60 +5572,55 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99" t="s">
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5637,6 +5635,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5649,8 +5652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5663,8 +5666,8 @@
     <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.25" style="1" customWidth="1"/>
@@ -5694,123 +5697,123 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="127" t="s">
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="127"/>
-      <c r="K3" s="124" t="s">
+      <c r="J3" s="113"/>
+      <c r="K3" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="126"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="112"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="149"/>
       <c r="H4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
       <c r="K4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="133" t="s">
+      <c r="N4" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="133"/>
+      <c r="O4" s="150"/>
       <c r="P4" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107" t="s">
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="139" t="s">
+      <c r="L5" s="124"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="127" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="102"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5835,291 +5838,291 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="140"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="140"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
     </row>
     <row r="19" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="140"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
     </row>
     <row r="20" spans="1:16" s="52" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="150" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64" t="s">
         <v>104</v>
       </c>
       <c r="L20" s="54"/>
-      <c r="M20" s="154" t="s">
+      <c r="M20" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="154"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
     </row>
     <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="136" t="s">
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="137"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="142"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B23" s="53" t="s">
@@ -6128,6 +6131,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="F21:P21"/>
     <mergeCell ref="B5:B6"/>
@@ -6141,16 +6154,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\LDPEBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <r>
       <rPr>
@@ -2436,6 +2436,14 @@
   </si>
   <si>
     <t>内包装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只/包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3175,7 +3183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3374,6 +3382,24 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3599,12 +3625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3614,6 +3634,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3623,29 +3646,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3965,42 +3970,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="78" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="85" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4192,12 +4197,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4211,10 +4216,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4228,46 +4233,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="84"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4336,48 +4341,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="98" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="98" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="99"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4441,15 +4446,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="104"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="110"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4463,13 +4468,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="105"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="111"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4527,15 +4532,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4549,13 +4554,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4569,13 +4574,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4589,15 +4594,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4611,13 +4616,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4631,13 +4636,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4651,13 +4656,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4671,35 +4676,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="95"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="96" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="97"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4775,48 +4780,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="98" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="98" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="99"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4880,15 +4885,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="104"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="110"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4902,13 +4907,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="105"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="111"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4944,15 +4949,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4966,15 +4971,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4988,13 +4993,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5008,13 +5013,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5028,15 +5033,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5050,13 +5055,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5070,13 +5075,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5090,13 +5095,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5110,35 +5115,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="95"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="96" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="97"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5214,96 +5219,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="110" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="110" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113" t="s">
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="113"/>
+      <c r="P3" s="119"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123" t="s">
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="133" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="135"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="118"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5328,8 +5333,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5572,52 +5577,52 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="139"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="116"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5652,8 +5657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:P3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5663,9 +5668,9 @@
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
@@ -5697,123 +5702,125 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="146" t="s">
+      <c r="E3" s="148"/>
+      <c r="F3" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="113" t="s">
+      <c r="G3" s="152"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="110" t="s">
+      <c r="J3" s="119"/>
+      <c r="K3" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="112"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="118"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="149"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="71" t="s">
+        <v>112</v>
+      </c>
       <c r="H4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="150"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123" t="s">
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="124"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="145" t="s">
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="O5" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="133" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="118"/>
+    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5838,9 +5845,9 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="55"/>
@@ -5849,16 +5856,16 @@
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
       <c r="F7" s="57"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="58"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="55"/>
@@ -5867,16 +5874,16 @@
       <c r="D8" s="55"/>
       <c r="E8" s="56"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="156"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="58"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="55"/>
@@ -5885,16 +5892,16 @@
       <c r="D9" s="55"/>
       <c r="E9" s="56"/>
       <c r="F9" s="57"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="156"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="55"/>
@@ -5903,16 +5910,16 @@
       <c r="D10" s="55"/>
       <c r="E10" s="56"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="156"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="55"/>
@@ -5921,16 +5928,16 @@
       <c r="D11" s="55"/>
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="156"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="58"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="55"/>
@@ -5939,16 +5946,16 @@
       <c r="D12" s="55"/>
       <c r="E12" s="56"/>
       <c r="F12" s="57"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="156"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="58"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="55"/>
@@ -5957,16 +5964,16 @@
       <c r="D13" s="55"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="156"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="55"/>
@@ -5975,16 +5982,16 @@
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="156"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="58"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="55"/>
@@ -5993,16 +6000,16 @@
       <c r="D15" s="55"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="156"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="55"/>
@@ -6011,16 +6018,16 @@
       <c r="D16" s="55"/>
       <c r="E16" s="56"/>
       <c r="F16" s="57"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="156"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="58"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="55"/>
@@ -6029,16 +6036,16 @@
       <c r="D17" s="55"/>
       <c r="E17" s="56"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="156"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="58"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="55"/>
@@ -6047,16 +6054,16 @@
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="156"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="58"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
     </row>
     <row r="19" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
@@ -6065,16 +6072,16 @@
       <c r="D19" s="55"/>
       <c r="E19" s="56"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="156"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="58"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
     </row>
     <row r="20" spans="1:16" s="52" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="59" t="s">
@@ -6099,30 +6106,32 @@
         <v>107</v>
       </c>
       <c r="N20" s="65"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
     </row>
     <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141" t="s">
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="142"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="122"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B23" s="53" t="s">
@@ -6138,11 +6147,9 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="K3:P3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:P21"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -6154,6 +6161,8 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -2288,28 +2288,6 @@
   </si>
   <si>
     <t>包装规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成品率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=B/Cx100%</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3183,7 +3161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3343,9 +3321,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3529,6 +3504,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3544,80 +3594,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3633,21 +3623,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3970,42 +3945,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="84" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="91" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4197,12 +4172,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4216,10 +4191,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4233,46 +4208,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="90"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4341,48 +4316,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="104" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="104" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="105"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="104"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4446,15 +4421,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="109"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4468,13 +4443,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="111"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="110"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4532,15 +4507,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="98"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4554,13 +4529,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="99"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="98"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4574,13 +4549,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="99"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="98"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4594,15 +4569,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4616,13 +4591,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4636,13 +4611,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4656,13 +4631,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4676,35 +4651,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="102" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="103"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4780,48 +4755,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="104" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="104" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="105"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="104"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4885,15 +4860,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="109"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4907,13 +4882,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="111"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="110"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4949,15 +4924,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="112" t="s">
+      <c r="J8" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="113"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4971,15 +4946,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="98"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4993,13 +4968,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="99"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="98"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5013,13 +4988,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="99"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="98"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5033,15 +5008,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5055,13 +5030,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5075,13 +5050,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5095,13 +5070,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5115,43 +5090,38 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="102" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="103"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5163,6 +5133,11 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5219,96 +5194,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="116" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="116" t="s">
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="119" t="s">
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="119"/>
+      <c r="P3" s="143"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129" t="s">
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="132" t="s">
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="133" t="s">
+      <c r="P4" s="127" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="141"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="124"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5333,8 +5308,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5577,55 +5552,60 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121" t="s">
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5640,11 +5620,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5655,10 +5630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:P21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5702,125 +5677,125 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="151" t="s">
+      <c r="E3" s="152"/>
+      <c r="F3" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="119" t="s">
+      <c r="G3" s="146"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="116" t="s">
+      <c r="J3" s="143"/>
+      <c r="K3" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="148"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="71" t="s">
-        <v>112</v>
+      <c r="G4" s="70" t="s">
+        <v>111</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
       <c r="K4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="O4" s="154"/>
+      <c r="N4" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="148"/>
       <c r="P4" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="130"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="149" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="133" t="s">
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="124"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="133" t="s">
+      <c r="P5" s="127" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="124"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5845,301 +5820,305 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
     </row>
     <row r="20" spans="1:16" s="52" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61" t="s">
+      <c r="A20" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64" t="s">
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="53"/>
+      <c r="M20" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="64"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+    </row>
+    <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="N20" s="65"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-    </row>
-    <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="145" t="s">
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="53" t="s">
-        <v>103</v>
-      </c>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>
@@ -6149,20 +6128,11 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="K3:P3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/5 SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -18,6 +18,9 @@
     <sheet name="20170620" sheetId="4" r:id="rId4"/>
     <sheet name="20170830" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'20170830'!$5:$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2429,7 +2432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2595,25 +2598,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="42">
@@ -3161,7 +3159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3315,44 +3313,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3363,18 +3328,54 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3594,6 +3595,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3609,6 +3622,21 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3621,11 +3649,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3945,42 +3973,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="83" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="90" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4172,12 +4200,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4191,10 +4219,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4208,46 +4236,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="89"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4316,48 +4344,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="103" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="103" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="104"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4421,15 +4449,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="109"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="110"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4443,13 +4471,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="110"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="111"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4507,15 +4535,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4529,13 +4557,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4549,13 +4577,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4569,15 +4597,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4591,13 +4619,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4611,13 +4639,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4631,13 +4659,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4651,35 +4679,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="101" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="102"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4755,48 +4783,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="103" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="103" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="104"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4860,15 +4888,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="109"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="110"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4882,13 +4910,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="110"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="111"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4924,15 +4952,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4946,15 +4974,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4968,13 +4996,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4988,13 +5016,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5008,15 +5036,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5030,13 +5058,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5050,13 +5078,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5070,13 +5098,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5090,35 +5118,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="101" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="102"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5194,96 +5222,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="140" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="140" t="s">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143" t="s">
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="143"/>
+      <c r="P3" s="144"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123" t="s">
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126" t="s">
+      <c r="M4" s="125"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="128" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="135"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="118"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5308,8 +5336,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5552,52 +5580,52 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5630,10 +5658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5677,141 +5705,141 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="145" t="s">
+      <c r="E3" s="162"/>
+      <c r="F3" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="146"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="143" t="s">
+      <c r="G3" s="151"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="143"/>
-      <c r="K3" s="140" t="s">
+      <c r="J3" s="144"/>
+      <c r="K3" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="143"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="152"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="56" t="s">
         <v>111</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="148" t="s">
+      <c r="N4" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="O4" s="148"/>
+      <c r="O4" s="153"/>
       <c r="P4" s="50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="134" t="s">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="124"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="153" t="s">
+      <c r="L5" s="125"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="O5" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="128" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="29" t="s">
+      <c r="A6" s="146"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="68" t="s">
         <v>84</v>
       </c>
       <c r="L6" s="30" t="s">
@@ -5820,299 +5848,83 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-    </row>
-    <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-    </row>
-    <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-    </row>
-    <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-    </row>
-    <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-    </row>
-    <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-    </row>
-    <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-    </row>
-    <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-    </row>
-    <row r="19" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-    </row>
-    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+    </row>
+    <row r="8" spans="1:16" s="51" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="64" t="s">
+      <c r="L8" s="67"/>
+      <c r="M8" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="64"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-    </row>
-    <row r="21" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="149" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+    </row>
+    <row r="9" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="154" t="s">
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154" t="s">
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -6136,7 +5948,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.51" bottom="0.15748031496062992" header="0.39370078740157483" footer="0.15748031496062992"/>
+  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.51181102362204722" bottom="0.51181102362204722" header="0.39370078740157483" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>